--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-goal-target-measure-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-goal-target-measure-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:27:10+00:00</t>
+    <t>2026-01-02T23:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>The Open Nursing Community</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -319,42 +322,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -376,34 +381,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -425,34 +430,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onc-goal-target-measure-vs.xlsx
+++ b/ValueSet-onc-goal-target-measure-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
